--- a/data_templates/data/historical prevalence new.xlsx
+++ b/data_templates/data/historical prevalence new.xlsx
@@ -21,16 +21,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Manacamarie_all</t>
+    <t>.03-3</t>
   </si>
   <si>
-    <t>Padre cocha_all</t>
+    <t>Manacamarie_all_AJTMH</t>
   </si>
   <si>
-    <t>Zungaro Cocha_all</t>
+    <t>Padre cocha_all_AJTMH</t>
   </si>
   <si>
-    <t>.03-3</t>
+    <t>Zungaro Cocha_all_AJTMH</t>
   </si>
 </sst>
 </file>
@@ -867,16 +867,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>35247</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>3.5900000000000001E-2</v>
